--- a/RedHome.xlsx
+++ b/RedHome.xlsx
@@ -386,6 +386,18 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -407,23 +419,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -441,13 +441,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B3:F18" totalsRowShown="0">
   <autoFilter ref="B3:F18"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="No" dataDxfId="3"/>
-    <tableColumn id="2" name="Seccion" dataDxfId="2"/>
+    <tableColumn id="1" name="No" dataDxfId="1"/>
+    <tableColumn id="2" name="Seccion" dataDxfId="0"/>
     <tableColumn id="3" name="Nombre del equipo"/>
     <tableColumn id="4" name="IP"/>
     <tableColumn id="5" name="Descripcion"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -717,7 +717,7 @@
   <dimension ref="B3:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
